--- a/xtt_demo/05-01_R.xlsx
+++ b/xtt_demo/05-01_R.xlsx
@@ -361,13 +361,13 @@
     <t>Average for SUM1 &amp; SUM2</t>
   </si>
   <si>
-    <t>COUNT = 5 </t>
+    <t>COUNT = 4 </t>
   </si>
   <si>
     <t>COUNT= 2 </t>
   </si>
   <si>
-    <t>COUNT= 3 </t>
+    <t>COUNT= 5 </t>
   </si>
   <si>
     <t>Caption</t>
@@ -436,7 +436,7 @@
     <t>Sub items count 2 </t>
   </si>
   <si>
-    <t>Sub items count 3 </t>
+    <t>Sub items count 4 </t>
   </si>
   <si>
     <t>Sub items count 5 </t>
@@ -1793,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="16">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="F4" s="16">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
     </row>
     <row r="5">
@@ -1807,13 +1807,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="16">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
       <c r="F5" s="16">
-        <v>9927.07</v>
+        <v>7717.20</v>
       </c>
     </row>
     <row r="6">
@@ -1821,13 +1821,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="16">
-        <v>6836.72</v>
+        <v>3031.38</v>
       </c>
       <c r="F6" s="16">
-        <v>7795.09</v>
+        <v>445.22</v>
       </c>
     </row>
     <row r="7">
@@ -1835,13 +1835,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="16">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
       <c r="F7" s="16">
-        <v>7742.85</v>
+        <v>3683.27</v>
       </c>
     </row>
     <row r="8">
@@ -1852,10 +1852,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="16">
-        <v>7630.05</v>
+        <v>4604.00</v>
       </c>
       <c r="F8" s="16">
-        <v>6014.38</v>
+        <v>5525.85</v>
       </c>
     </row>
     <row r="9">
@@ -1863,13 +1863,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="16">
-        <v>5746.69</v>
+        <v>2159.71</v>
       </c>
       <c r="F9" s="16">
-        <v>1997.34</v>
+        <v>2260.94</v>
       </c>
     </row>
     <row r="10">
@@ -1877,13 +1877,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="16">
-        <v>471.62</v>
+        <v>2490.30</v>
       </c>
       <c r="F10" s="16">
-        <v>6510.54</v>
+        <v>6388.81</v>
       </c>
     </row>
     <row r="11">
@@ -1894,10 +1894,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="16">
-        <v>6001.36</v>
+        <v>5476.81</v>
       </c>
       <c r="F11" s="16">
-        <v>7509.60</v>
+        <v>406.18</v>
       </c>
     </row>
     <row r="12">
@@ -1905,13 +1905,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="16">
-        <v>9950.90</v>
+        <v>689.66</v>
       </c>
       <c r="F12" s="16">
-        <v>7487.59</v>
+        <v>518.60</v>
       </c>
     </row>
     <row r="13">
@@ -1919,13 +1919,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="16">
-        <v>153.90</v>
+        <v>5451.87</v>
       </c>
       <c r="F13" s="16">
-        <v>7473.27</v>
+        <v>4061.85</v>
       </c>
     </row>
     <row r="14">
@@ -1933,13 +1933,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="16">
-        <v>8972.09</v>
+        <v>4573.55</v>
       </c>
       <c r="F14" s="16">
-        <v>1796.79</v>
+        <v>5436.00</v>
       </c>
     </row>
     <row r="15">
@@ -1950,10 +1950,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="16">
-        <v>214.52</v>
+        <v>1196.35</v>
       </c>
       <c r="F15" s="16">
-        <v>8481.91</v>
+        <v>522.46</v>
       </c>
     </row>
     <row r="16">
@@ -1961,13 +1961,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="16">
-        <v>4164.85</v>
+        <v>7686.95</v>
       </c>
       <c r="F16" s="16">
-        <v>4263.78</v>
+        <v>2727.98</v>
       </c>
     </row>
     <row r="17">
@@ -1975,13 +1975,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="16">
-        <v>847.44</v>
+        <v>978.18</v>
       </c>
       <c r="F17" s="16">
-        <v>1515.22</v>
+        <v>295.55</v>
       </c>
     </row>
     <row r="18">
@@ -1989,13 +1989,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="16">
-        <v>6220.04</v>
+        <v>71.12</v>
       </c>
       <c r="F18" s="16">
-        <v>6482.36</v>
+        <v>8878.56</v>
       </c>
     </row>
   </sheetData>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="20">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="F4" s="20">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
     </row>
     <row r="5">
@@ -2061,13 +2061,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="20">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
       <c r="F5" s="20">
-        <v>9927.07</v>
+        <v>7717.20</v>
       </c>
     </row>
     <row r="6">
@@ -2076,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="20">
-        <v>6836.72</v>
+        <v>3031.38</v>
       </c>
       <c r="F6" s="20">
-        <v>7795.09</v>
+        <v>445.22</v>
       </c>
     </row>
     <row r="7">
@@ -2091,13 +2091,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="20">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
       <c r="F7" s="20">
-        <v>7742.85</v>
+        <v>3683.27</v>
       </c>
     </row>
     <row r="8">
@@ -2109,10 +2109,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="20">
-        <v>7630.05</v>
+        <v>4604.00</v>
       </c>
       <c r="F8" s="20">
-        <v>6014.38</v>
+        <v>5525.85</v>
       </c>
     </row>
     <row r="9">
@@ -2121,13 +2121,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="20">
-        <v>5746.69</v>
+        <v>2159.71</v>
       </c>
       <c r="F9" s="20">
-        <v>1997.34</v>
+        <v>2260.94</v>
       </c>
     </row>
     <row r="10">
@@ -2136,13 +2136,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="20">
-        <v>471.62</v>
+        <v>2490.30</v>
       </c>
       <c r="F10" s="20">
-        <v>6510.54</v>
+        <v>6388.81</v>
       </c>
     </row>
     <row r="11">
@@ -2154,10 +2154,10 @@
         <v>33</v>
       </c>
       <c r="E11" s="20">
-        <v>6001.36</v>
+        <v>5476.81</v>
       </c>
       <c r="F11" s="20">
-        <v>7509.60</v>
+        <v>406.18</v>
       </c>
     </row>
     <row r="12">
@@ -2166,13 +2166,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="20">
-        <v>9950.90</v>
+        <v>689.66</v>
       </c>
       <c r="F12" s="20">
-        <v>7487.59</v>
+        <v>518.60</v>
       </c>
     </row>
     <row r="13">
@@ -2181,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="20">
-        <v>153.90</v>
+        <v>5451.87</v>
       </c>
       <c r="F13" s="20">
-        <v>7473.27</v>
+        <v>4061.85</v>
       </c>
     </row>
     <row r="14">
@@ -2196,13 +2196,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="20">
-        <v>8972.09</v>
+        <v>4573.55</v>
       </c>
       <c r="F14" s="20">
-        <v>1796.79</v>
+        <v>5436.00</v>
       </c>
     </row>
     <row r="15">
@@ -2214,10 +2214,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="20">
-        <v>214.52</v>
+        <v>1196.35</v>
       </c>
       <c r="F15" s="20">
-        <v>8481.91</v>
+        <v>522.46</v>
       </c>
     </row>
     <row r="16">
@@ -2226,13 +2226,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="20">
-        <v>4164.85</v>
+        <v>7686.95</v>
       </c>
       <c r="F16" s="20">
-        <v>4263.78</v>
+        <v>2727.98</v>
       </c>
     </row>
     <row r="17">
@@ -2241,13 +2241,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E17" s="20">
-        <v>847.44</v>
+        <v>978.18</v>
       </c>
       <c r="F17" s="20">
-        <v>1515.22</v>
+        <v>295.55</v>
       </c>
     </row>
     <row r="18">
@@ -2256,13 +2256,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="20">
-        <v>6220.04</v>
+        <v>71.12</v>
       </c>
       <c r="F18" s="20">
-        <v>6482.36</v>
+        <v>8878.56</v>
       </c>
     </row>
     <row r="19">
@@ -2272,10 +2272,10 @@
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24">
-        <v>68990.07</v>
+        <v>56134.86</v>
       </c>
       <c r="F19" s="25">
-        <v>6037.44</v>
+        <v>3592.66</v>
       </c>
     </row>
   </sheetData>
@@ -2338,13 +2338,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>23852.24</v>
+        <v>25529.04</v>
       </c>
       <c r="E4" s="8">
-        <v>29609.68</v>
+        <v>14636.76</v>
       </c>
     </row>
     <row r="5" customHeight="1" ht="15.75" outlineLevel="1">
@@ -2353,307 +2353,307 @@
         <v>0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="E5" s="12">
-        <v>5563.86</v>
+        <v>5021.46</v>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A6" t="s"/>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12">
-        <v>6836.72</v>
+        <v>9476.79</v>
       </c>
       <c r="E6" s="12">
-        <v>7795.09</v>
+        <v>3683.27</v>
       </c>
     </row>
     <row r="7" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A7" t="s"/>
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12">
-        <v>4038.64</v>
+        <v>4604.00</v>
       </c>
       <c r="E7" s="12">
-        <v>7742.85</v>
+        <v>5525.85</v>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A8" t="s"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12">
-        <v>5746.69</v>
+        <v>5476.81</v>
       </c>
       <c r="E8" s="12">
-        <v>1997.34</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" ht="15.75" outlineLevel="1">
+        <v>406.18</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15.75">
       <c r="A9" t="s"/>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12">
-        <v>471.62</v>
-      </c>
-      <c r="E9" s="12">
-        <v>6510.54</v>
-      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customHeight="1" ht="15.75">
       <c r="A10" t="s"/>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" customHeight="1" ht="15.75">
       <c r="A11" t="s"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" customHeight="1" ht="15.75">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18771.63</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17290.43</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A12" t="s"/>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24433.62</v>
-      </c>
-      <c r="E12" s="8">
-        <v>26763.06</v>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2276.75</v>
+      </c>
+      <c r="E12" s="12">
+        <v>7717.20</v>
       </c>
     </row>
     <row r="13" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A13" t="s"/>
       <c r="B13" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12">
-        <v>982.68</v>
+        <v>2159.71</v>
       </c>
       <c r="E13" s="12">
-        <v>9927.07</v>
+        <v>2260.94</v>
       </c>
     </row>
     <row r="14" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A14" t="s"/>
       <c r="B14" s="10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12">
-        <v>7630.05</v>
+        <v>5451.87</v>
       </c>
       <c r="E14" s="12">
-        <v>6014.38</v>
+        <v>4061.85</v>
       </c>
     </row>
     <row r="15" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A15" t="s"/>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12">
-        <v>6001.36</v>
+        <v>1196.35</v>
       </c>
       <c r="E15" s="12">
-        <v>7509.60</v>
+        <v>522.46</v>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A16" t="s"/>
       <c r="B16" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12">
-        <v>8972.09</v>
+        <v>7686.95</v>
       </c>
       <c r="E16" s="12">
-        <v>1796.79</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" ht="15.75" outlineLevel="1">
+        <v>2727.98</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="15.75">
       <c r="A17" t="s"/>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="12">
-        <v>847.44</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1515.22</v>
-      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" customHeight="1" ht="15.75">
       <c r="A18" t="s"/>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" customHeight="1" ht="15.75">
       <c r="A19" t="s"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customHeight="1" ht="15.75">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5521.68</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6834.03</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A20" t="s"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7">
-        <v>16385.46</v>
-      </c>
-      <c r="E20" s="8">
-        <v>22451.86</v>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3031.38</v>
+      </c>
+      <c r="E20" s="12">
+        <v>445.22</v>
       </c>
     </row>
     <row r="21" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A21" t="s"/>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12">
-        <v>9950.90</v>
+        <v>2490.30</v>
       </c>
       <c r="E21" s="12">
-        <v>7487.59</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" ht="15.75" outlineLevel="1">
+        <v>6388.81</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="15.75">
       <c r="A22" t="s"/>
-      <c r="B22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12">
-        <v>214.52</v>
-      </c>
-      <c r="E22" s="12">
-        <v>8481.91</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" ht="15.75" outlineLevel="1">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" customHeight="1" ht="15.75">
       <c r="A23" t="s"/>
-      <c r="B23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="12">
-        <v>6220.04</v>
-      </c>
-      <c r="E23" s="12">
-        <v>6482.36</v>
-      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" customHeight="1" ht="15.75">
       <c r="A24" t="s"/>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" customHeight="1" ht="15.75">
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6312.51</v>
+      </c>
+      <c r="E24" s="8">
+        <v>15128.71</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A25" t="s"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customHeight="1" ht="15.75">
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <v>689.66</v>
+      </c>
+      <c r="E25" s="12">
+        <v>518.60</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A26" t="s"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4318.75</v>
-      </c>
-      <c r="E26" s="8">
-        <v>11737.05</v>
+      <c r="B26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12">
+        <v>4573.55</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5436.00</v>
       </c>
     </row>
     <row r="27" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A27" t="s"/>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="12">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
       <c r="E27" s="12">
-        <v>7473.27</v>
+        <v>295.55</v>
       </c>
     </row>
     <row r="28" customHeight="1" ht="15.75" outlineLevel="1">
       <c r="A28" t="s"/>
       <c r="B28" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="12">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
       <c r="E28" s="12">
-        <v>4263.78</v>
+        <v>8878.56</v>
       </c>
     </row>
     <row r="29" customHeight="1" ht="15.75">
@@ -2688,10 +2688,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="31">
-        <v>68990.07</v>
+        <v>56134.86</v>
       </c>
       <c r="E32" s="32">
-        <v>90561.65</v>
+        <v>53889.93</v>
       </c>
     </row>
   </sheetData>
@@ -2750,13 +2750,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>23852.24</v>
+        <v>25529.04</v>
       </c>
       <c r="E4" s="8">
-        <v>29609.68</v>
+        <v>14636.76</v>
       </c>
     </row>
     <row r="5" hidden="1" outlineLevel="1">
@@ -2765,307 +2765,307 @@
         <v>0</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
       <c r="E5" s="12">
-        <v>6758.57</v>
+        <v>5971.44</v>
       </c>
     </row>
     <row r="6" hidden="1" outlineLevel="1">
       <c r="A6" s="27" t="s"/>
       <c r="B6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="12">
-        <v>6836.72</v>
+        <v>9476.79</v>
       </c>
       <c r="E6" s="12">
-        <v>6836.72</v>
+        <v>9476.79</v>
       </c>
     </row>
     <row r="7" hidden="1" outlineLevel="1">
       <c r="A7" s="27" t="s"/>
       <c r="B7" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="12">
-        <v>4038.64</v>
+        <v>4604.00</v>
       </c>
       <c r="E7" s="12">
-        <v>4038.64</v>
+        <v>4604.00</v>
       </c>
     </row>
     <row r="8" hidden="1" outlineLevel="1">
       <c r="A8" s="27" t="s"/>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="12">
-        <v>5746.69</v>
+        <v>5476.81</v>
       </c>
       <c r="E8" s="12">
-        <v>5746.69</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" outlineLevel="1">
+        <v>5476.81</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="27" t="s"/>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="12">
-        <v>471.62</v>
-      </c>
-      <c r="E9" s="12">
-        <v>471.62</v>
-      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="27" t="s"/>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="27" t="s"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18771.63</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17290.43</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" outlineLevel="1">
       <c r="A12" s="27" t="s"/>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24433.62</v>
-      </c>
-      <c r="E12" s="8">
-        <v>26763.06</v>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2276.75</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2276.75</v>
       </c>
     </row>
     <row r="13" hidden="1" outlineLevel="1">
       <c r="A13" s="27" t="s"/>
       <c r="B13" s="10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12">
-        <v>982.68</v>
+        <v>2159.71</v>
       </c>
       <c r="E13" s="12">
-        <v>982.68</v>
+        <v>2159.71</v>
       </c>
     </row>
     <row r="14" hidden="1" outlineLevel="1">
       <c r="A14" s="27" t="s"/>
       <c r="B14" s="10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12">
-        <v>7630.05</v>
+        <v>5451.87</v>
       </c>
       <c r="E14" s="12">
-        <v>7630.05</v>
+        <v>5451.87</v>
       </c>
     </row>
     <row r="15" hidden="1" outlineLevel="1">
       <c r="A15" s="27" t="s"/>
       <c r="B15" s="10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12">
-        <v>6001.36</v>
+        <v>1196.35</v>
       </c>
       <c r="E15" s="12">
-        <v>6001.36</v>
+        <v>1196.35</v>
       </c>
     </row>
     <row r="16" hidden="1" outlineLevel="1">
       <c r="A16" s="27" t="s"/>
       <c r="B16" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="12">
-        <v>8972.09</v>
+        <v>7686.95</v>
       </c>
       <c r="E16" s="12">
-        <v>8972.09</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" outlineLevel="1">
+        <v>7686.95</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="27" t="s"/>
-      <c r="B17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="12">
-        <v>847.44</v>
-      </c>
-      <c r="E17" s="12">
-        <v>847.44</v>
-      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18">
       <c r="A18" s="27" t="s"/>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20">
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5521.68</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6834.03</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" outlineLevel="1">
       <c r="A20" s="27" t="s"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="7">
-        <v>16385.46</v>
-      </c>
-      <c r="E20" s="8">
-        <v>22451.86</v>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3031.38</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3031.38</v>
       </c>
     </row>
     <row r="21" hidden="1" outlineLevel="1">
       <c r="A21" s="27" t="s"/>
       <c r="B21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12">
-        <v>9950.90</v>
+        <v>2490.30</v>
       </c>
       <c r="E21" s="12">
-        <v>9950.90</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" outlineLevel="1">
+        <v>2490.30</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="27" t="s"/>
-      <c r="B22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12">
-        <v>214.52</v>
-      </c>
-      <c r="E22" s="12">
-        <v>214.52</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" outlineLevel="1">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23">
       <c r="A23" s="27" t="s"/>
-      <c r="B23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="12">
-        <v>6220.04</v>
-      </c>
-      <c r="E23" s="12">
-        <v>6220.04</v>
-      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s"/>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25">
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6312.51</v>
+      </c>
+      <c r="E24" s="8">
+        <v>15128.71</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" outlineLevel="1">
       <c r="A25" s="27" t="s"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26">
+      <c r="B25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12">
+        <v>689.66</v>
+      </c>
+      <c r="E25" s="12">
+        <v>689.66</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" outlineLevel="1">
       <c r="A26" s="27" t="s"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4318.75</v>
-      </c>
-      <c r="E26" s="8">
-        <v>11737.05</v>
+      <c r="B26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12">
+        <v>4573.55</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4573.55</v>
       </c>
     </row>
     <row r="27" hidden="1" outlineLevel="1">
       <c r="A27" s="27" t="s"/>
       <c r="B27" s="10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" s="12">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
       <c r="E27" s="12">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
     </row>
     <row r="28" hidden="1" outlineLevel="1">
       <c r="A28" s="27" t="s"/>
       <c r="B28" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28" s="12">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
       <c r="E28" s="12">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="29">
@@ -3099,10 +3099,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="31">
-        <v>68990.07</v>
+        <v>56134.86</v>
       </c>
       <c r="E32" s="32">
-        <v>90561.65</v>
+        <v>53889.93</v>
       </c>
     </row>
   </sheetData>
@@ -3159,23 +3159,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
-      <c r="A4" s="45" t="s"/>
-      <c r="B4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12">
-        <v>6758.57</v>
-      </c>
-      <c r="F4" s="12">
-        <v>6758.57</v>
-      </c>
+    <row r="4" customHeight="1" ht="15.75">
+      <c r="A4" s="34" t="s"/>
+      <c r="B4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A5" s="45" t="s"/>
@@ -3183,16 +3179,16 @@
         <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="12">
-        <v>6836.72</v>
+        <v>5971.44</v>
       </c>
       <c r="F5" s="12">
-        <v>6836.72</v>
+        <v>5971.44</v>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3204,13 +3200,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="12">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
       <c r="F6" s="12">
-        <v>4038.64</v>
+        <v>9476.79</v>
       </c>
     </row>
     <row r="7" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3219,16 +3215,16 @@
         <v>49</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12">
-        <v>5746.69</v>
+        <v>4604.00</v>
       </c>
       <c r="F7" s="12">
-        <v>5746.69</v>
+        <v>4604.00</v>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3237,16 +3233,16 @@
         <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12">
-        <v>471.62</v>
+        <v>5476.81</v>
       </c>
       <c r="F8" s="12">
-        <v>471.62</v>
+        <v>5476.81</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="15.75">
@@ -3255,16 +3251,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="47">
-        <v>23852.24</v>
+        <v>25529.04</v>
       </c>
       <c r="F9" s="47">
-        <v>29609.68</v>
+        <v>14636.76</v>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15.75">
@@ -3273,18 +3269,18 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" customHeight="1" ht="15.75">
-      <c r="A11" s="34" t="s"/>
-      <c r="B11" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="37" t="s"/>
+      <c r="B11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A12" s="45" t="s"/>
@@ -3295,13 +3291,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="12">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
       <c r="F12" s="12">
-        <v>982.68</v>
+        <v>2276.75</v>
       </c>
     </row>
     <row r="13" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3310,16 +3306,16 @@
         <v>49</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="12">
-        <v>7630.05</v>
+        <v>2159.71</v>
       </c>
       <c r="F13" s="12">
-        <v>7630.05</v>
+        <v>2159.71</v>
       </c>
     </row>
     <row r="14" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3328,16 +3324,16 @@
         <v>49</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12">
-        <v>6001.36</v>
+        <v>5451.87</v>
       </c>
       <c r="F14" s="12">
-        <v>6001.36</v>
+        <v>5451.87</v>
       </c>
     </row>
     <row r="15" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3346,16 +3342,16 @@
         <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12">
-        <v>8972.09</v>
+        <v>1196.35</v>
       </c>
       <c r="F15" s="12">
-        <v>8972.09</v>
+        <v>1196.35</v>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3364,16 +3360,16 @@
         <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12">
-        <v>847.44</v>
+        <v>7686.95</v>
       </c>
       <c r="F16" s="12">
-        <v>847.44</v>
+        <v>7686.95</v>
       </c>
     </row>
     <row r="17" customHeight="1" ht="15.75">
@@ -3382,16 +3378,16 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="47">
-        <v>24433.62</v>
+        <v>18771.63</v>
       </c>
       <c r="F17" s="47">
-        <v>26763.06</v>
+        <v>17290.43</v>
       </c>
     </row>
     <row r="18" customHeight="1" ht="15.75">
@@ -3401,35 +3397,25 @@
     </row>
     <row r="19" customHeight="1" ht="15.75">
       <c r="A19" s="37" t="s"/>
-      <c r="B19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
-      <c r="A20" s="45" t="s"/>
-      <c r="B20" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="12">
-        <v>9950.90</v>
-      </c>
-      <c r="F20" s="12">
-        <v>9950.90</v>
-      </c>
+      <c r="B19" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="62"/>
+    </row>
+    <row r="20" customHeight="1" ht="15.75">
+      <c r="A20" s="37" t="s"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A21" s="45" t="s"/>
@@ -3437,16 +3423,16 @@
         <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="12">
-        <v>214.52</v>
+        <v>3031.38</v>
       </c>
       <c r="F21" s="12">
-        <v>214.52</v>
+        <v>3031.38</v>
       </c>
     </row>
     <row r="22" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3455,16 +3441,16 @@
         <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="12">
-        <v>6220.04</v>
+        <v>2490.30</v>
       </c>
       <c r="F22" s="12">
-        <v>6220.04</v>
+        <v>2490.30</v>
       </c>
     </row>
     <row r="23" customHeight="1" ht="15.75">
@@ -3473,16 +3459,16 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="47">
-        <v>16385.46</v>
+        <v>5521.68</v>
       </c>
       <c r="F23" s="47">
-        <v>22451.86</v>
+        <v>6834.03</v>
       </c>
     </row>
     <row r="24" customHeight="1" ht="15.75">
@@ -3490,27 +3476,41 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" customHeight="1" ht="15.75">
-      <c r="A25" s="37" t="s"/>
-      <c r="B25" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="62"/>
-    </row>
-    <row r="26" customHeight="1" ht="15.75">
-      <c r="A26" s="37" t="s"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="63"/>
+    <row r="25" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A25" s="45" t="s"/>
+      <c r="B25" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="12">
+        <v>689.66</v>
+      </c>
+      <c r="F25" s="12">
+        <v>689.66</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A26" s="45" t="s"/>
+      <c r="B26" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4573.55</v>
+      </c>
+      <c r="F26" s="12">
+        <v>4573.55</v>
+      </c>
     </row>
     <row r="27" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A27" s="45" t="s"/>
@@ -3518,16 +3518,16 @@
         <v>49</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="12">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
       <c r="F27" s="12">
-        <v>153.90</v>
+        <v>978.18</v>
       </c>
     </row>
     <row r="28" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
@@ -3536,16 +3536,16 @@
         <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="12">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
       <c r="F28" s="12">
-        <v>4164.85</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="29" customHeight="1" ht="15.75">
@@ -3554,16 +3554,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="47">
-        <v>4318.75</v>
+        <v>6312.51</v>
       </c>
       <c r="F29" s="47">
-        <v>11737.05</v>
+        <v>15128.71</v>
       </c>
     </row>
     <row r="30" customHeight="1" ht="15.75">
@@ -3590,19 +3590,19 @@
         <v>40</v>
       </c>
       <c r="E32" s="52">
-        <v>17247.52</v>
+        <v>14033.72</v>
       </c>
       <c r="F32" s="53">
-        <v>22640.41</v>
+        <v>13472.48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="C31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
